--- a/biology/Zoologie/Acheloma/Acheloma.xlsx
+++ b/biology/Zoologie/Acheloma/Acheloma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acheloma cumminsi, Trematops, Acheloma dunni, Trematops milleri
 Acheloma (aussi connu sous le nom de Trematops milleri) est un genre fossile de temnospondyle qui a vécu de l'Artinskien au Kungurien du Permien inférieur.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acheloma a été nommé en 1882 par le paléontologue américain Edward Drinker Cope (1840-1897) sur la base d’un crâne incomplet avec des éléments postcrâniens associés de la formation Arroyo du Texas[1],[2]; le spécimen est actuellement repositionné à l’American Museum of Natural History à New York. Les découvertes subséquentes de grands trematopidae de la formation d’Arroyo ont été nommées différentes espèces de trématodes (T.milleri, T.willistoni), mais elles ont depuis été synonymes d’Acheloma cumminsi. Trematops stonei de la formation de Washington en Ohio et Trematops thomasi de l’Oklahoma ont également été synonymes de A.cumminsi. Polley et Reisz (2011) ont décrit une deuxième espèce d’Acheloma dans la localité de l’éperon Richards en Oklahoma.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acheloma a été nommé en 1882 par le paléontologue américain Edward Drinker Cope (1840-1897) sur la base d’un crâne incomplet avec des éléments postcrâniens associés de la formation Arroyo du Texas,; le spécimen est actuellement repositionné à l’American Museum of Natural History à New York. Les découvertes subséquentes de grands trematopidae de la formation d’Arroyo ont été nommées différentes espèces de trématodes (T.milleri, T.willistoni), mais elles ont depuis été synonymes d’Acheloma cumminsi. Trematops stonei de la formation de Washington en Ohio et Trematops thomasi de l’Oklahoma ont également été synonymes de A.cumminsi. Polley et Reisz (2011) ont décrit une deuxième espèce d’Acheloma dans la localité de l’éperon Richards en Oklahoma.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Acheloma est un amphibien terrestre.
 </t>
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cladogramme dans Dissorophoidea
-Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al.[3], et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d)[4].
+          <t>Cladogramme dans Dissorophoidea</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ci-dessous le cladogramme de la super-famille des Dissorophoidea, effectué en 2013 par Holmes et al., et en utilisant la matrice de données de l'analyse phylogénétique de 2012 de Rainer R. Schoch (d).
 </t>
         </is>
       </c>
